--- a/Robeco/Robeco-costs.xlsx
+++ b/Robeco/Robeco-costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Robeco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69177DA2-0A65-4C85-B7EB-DCDF80E73D8F}"/>
+  <xr:revisionPtr revIDLastSave="228" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C76F724B-6E63-4647-9E10-D38E90248C91}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="3015" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROMF" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -148,9 +148,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -436,7 +436,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Robeco/Robeco-costs.xlsx
+++ b/Robeco/Robeco-costs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Robeco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="228" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C76F724B-6E63-4647-9E10-D38E90248C91}"/>
+  <xr:revisionPtr revIDLastSave="283" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB5CF16-1ABA-4720-9517-44F7AACF3183}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="3015" windowWidth="17220" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="3210" windowWidth="21915" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROMF" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Robeco QI Global Multi-Factor Equities Fund</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Transaction costs</t>
   </si>
   <si>
-    <t>Lending income</t>
-  </si>
-  <si>
     <t>Lending income %</t>
   </si>
   <si>
@@ -81,6 +78,18 @@
   </si>
   <si>
     <t>No trans</t>
+  </si>
+  <si>
+    <t>Income from securities lending</t>
+  </si>
+  <si>
+    <t>De verwachte transactiekosten bedragen0,11%</t>
+  </si>
+  <si>
+    <t>M AUM</t>
+  </si>
+  <si>
+    <t>De fondsmanager kan de beleggingen in het fonds wijzigen. De daaraan verbonden kosten zijn ingeschat op 0,05%</t>
   </si>
 </sst>
 </file>
@@ -91,7 +100,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -108,6 +117,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -143,7 +160,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -152,6 +169,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -434,15 +454,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -480,7 +498,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>1126858</v>
@@ -497,10 +515,13 @@
       <c r="F3" s="4">
         <v>305344</v>
       </c>
+      <c r="G3" s="4">
+        <v>210857</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -517,7 +538,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4">
         <f>AVERAGE(B3:C3)</f>
@@ -535,10 +556,14 @@
         <f>(E3+F3+F4)/3</f>
         <v>971062.66666666663</v>
       </c>
+      <c r="G5" s="4">
+        <f>(F3+G3+G4)/3</f>
+        <v>251693.66666666666</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -552,10 +577,13 @@
       <c r="F7">
         <v>335</v>
       </c>
+      <c r="G7" s="4">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <f>C7/C5</f>
@@ -566,13 +594,17 @@
         <v>7.0184144108979975E-5</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" ref="E8:F8" si="1">E7/E5</f>
+        <f t="shared" ref="E8:G8" si="1">E7/E5</f>
         <v>1.7278209209605475E-4</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
         <v>3.4498288472971882E-4</v>
       </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>1.4700409624927656E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -594,10 +626,14 @@
         <f>922+37</f>
         <v>959</v>
       </c>
+      <c r="G10">
+        <f>125+4</f>
+        <v>129</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5">
         <f>C10/C5</f>
@@ -608,13 +644,17 @@
         <v>6.0025912724785495E-4</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" ref="E11:F11" si="2">E10/E5</f>
+        <f t="shared" ref="E11:G11" si="2">E10/E5</f>
         <v>5.1567988597803996E-4</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>9.8757787001731438E-4</v>
       </c>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
+        <v>5.1252779503126156E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -632,22 +672,25 @@
       <c r="F13" s="3">
         <v>-0.16</v>
       </c>
+      <c r="G13" s="3">
+        <v>0.54</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7">
-        <f>0.35%-F8+F11+B19</f>
-        <v>4.3425949852875945E-3</v>
+        <f>0.31%-G8+G11+B19</f>
+        <v>3.6655236987819854E-3</v>
       </c>
       <c r="C16" s="7">
         <f>0.35%-F8+B19</f>
@@ -656,7 +699,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="7">
         <f>0.71%-F8+F11+B19</f>
@@ -669,26 +712,45 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="7">
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666AF016-EAFB-476C-931A-8774735CC11C}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -724,7 +786,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="4">
         <v>8464</v>
@@ -741,10 +803,13 @@
       <c r="F3" s="4">
         <v>1137655</v>
       </c>
+      <c r="G3" s="4">
+        <v>1672223</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -761,7 +826,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6">
         <f>AVERAGE(B3:C3)</f>
@@ -779,10 +844,14 @@
         <f>(E3+F3+F4)/3</f>
         <v>1124480.6666666667</v>
       </c>
+      <c r="G5" s="6">
+        <f>(F3+G3+G4)/3</f>
+        <v>1427920</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -791,31 +860,38 @@
         <v>6</v>
       </c>
       <c r="E7">
-        <v>324</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>335</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="5">
         <f>C7/C5</f>
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <f t="shared" ref="D8:F8" si="1">D7/D5</f>
+        <f t="shared" ref="D8:G8" si="1">D7/D5</f>
         <v>1.9085274597340466E-5</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="1"/>
-        <v>3.8536287147672481E-4</v>
+        <v>4.7575663145274664E-6</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>2.9791530430936709E-4</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,17 +914,21 @@
         <f>430+15</f>
         <v>445</v>
       </c>
+      <c r="G10">
+        <f>379+7</f>
+        <v>386</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="5">
         <f>C10/C5</f>
         <v>6.0404711567502265E-4</v>
       </c>
       <c r="D11" s="5">
-        <f t="shared" ref="D11:F11" si="2">D10/D5</f>
+        <f t="shared" ref="D11:G11" si="2">D10/D5</f>
         <v>1.8449098777429117E-4</v>
       </c>
       <c r="E11" s="5">
@@ -859,6 +939,10 @@
         <f t="shared" si="2"/>
         <v>3.9573824005274138E-4</v>
       </c>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
+        <v>2.7032326740993891E-4</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -876,35 +960,48 @@
       <c r="F13" s="3">
         <v>0.61</v>
       </c>
+      <c r="G13" s="3">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7">
-        <f>0.31%-F8+F11+B17</f>
-        <v>3.3978229357433743E-3</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="10">
+        <f>0.31%-G8+F11+B17</f>
+        <v>3.6957382400527412E-3</v>
       </c>
       <c r="C16" s="5">
         <f>0.31%-F8+B17</f>
-        <v>3.0020846956906331E-3</v>
+        <v>3.3E-3</v>
       </c>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="7">
         <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Robeco/Robeco-costs.xlsx
+++ b/Robeco/Robeco-costs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7c741cee80ec8cf3/Financieel/IndexFondsenOnderzoek/KeuzeWelkIndexFonds/OnderzoekPerFonds/Robeco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="283" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB5CF16-1ABA-4720-9517-44F7AACF3183}"/>
+  <xr:revisionPtr revIDLastSave="285" documentId="11_AD4D7A0C205A6B9A452FA8E75FDB70E25BDEDD8D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C548D5C8-F588-48BA-927B-4D4D13C4ED2E}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="3210" windowWidth="21915" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23985" yWindow="2100" windowWidth="21915" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROMF" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Robeco QI Global Multi-Factor Equities Fund</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>De fondsmanager kan de beleggingen in het fonds wijzigen. De daaraan verbonden kosten zijn ingeschat op 0,05%</t>
+  </si>
+  <si>
+    <t>Copy/paste</t>
   </si>
 </sst>
 </file>
@@ -744,9 +747,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666AF016-EAFB-476C-931A-8774735CC11C}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1004,6 +1009,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
